--- a/Datasets/parsedTests/OAB-41.xlsx
+++ b/Datasets/parsedTests/OAB-41.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>question_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>question</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>legalPrinciples</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>canceledQuestion?</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>QUESTÃO 01. A advogada Marina prestou consultoria na área de Direito Tributário para uma 
 sociedade empresária, analisando um tema importante para as funções da referida pessoa 
@@ -479,7 +492,7 @@
 necessária a outorga de mandato.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre consultoria prestada pelo advogado, requerendo 
@@ -506,22 +519,30 @@
 independem de outorga de mandato ou de formalização por contrato de honorários”.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>artigo 5º, §4, do EOAB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>QUESTÃO 02. O Conselho Seccional da OAB do Estado Alfa, por meio do seu Tribunal de Ética e 
 Disciplina, instaurou processo disciplinar, ao fim do qual foi aplicada a pena de suspensão do 
@@ -549,7 +570,7 @@
 e apreciar pedidos de reabilitação disciplinar.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata acerca do processo reabilitação.  
@@ -577,22 +598,30 @@
 do Conselho Federal da OAB competente para apreciar pedidos de reabilitação disciplin ar.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>art. 41, parágrafo único, da EOAB, reabilitação criminal</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>QUESTÃO 03. Ana Júlia, recentemente aprovada no Exame da Ordem dos Advogados do Brasil, 
 aspira exercer sua nova atividade profissional de maneira comprometida com os deveres éticos 
@@ -613,7 +642,7 @@
 traçada ao cliente, mas sem se subordinar às suas intenções contrárias.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre os deveres éticos e valores da advocacia.   
@@ -635,22 +664,30 @@
 quanto à estratégia traçada.”</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Art. 2º, VI do Código de Ética e Disciplina da OAB, Art. 2º, VIII, alínea e, do Código de Ética e Disciplina da OAB, Art. 29 do Código de Ética e Disciplina da OAB, Art. 11 do Código de Ética e Disciplina da Ordem dos Advogados do Brasil</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>QUESTÃO 04. Pedro Estrela, brasileiro, natural de Recife/PE, foi preso em flagrante por 
 participar de esquema criminoso envolvendo pirâmides financeiras e por se apresentar como 
@@ -676,7 +713,7 @@
 obtidos no exterior.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre a revalidação de diploma de brasileiro e 
@@ -704,22 +741,30 @@
 dipl oma, bem como, cumprirem os demais requisitos do art. 8º da EOAB.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>art. 8, §2º, da EOAB, art. 8º da EOAB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>QUESTÃO 05. Atena, médica oftalmologista, e Dionísio, advogado atuante em Direito de Família, 
 são casados há 5 anos e residem em casa alugada na cidade de Uberaba/MG. Sendo ambos 
@@ -743,7 +788,7 @@
 não lhes seria possível exigir conduta diversa.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre o exercício da advocacia em conjunto com outras 
@@ -766,22 +811,30 @@
 termos do art. 16, da EOAB, sendo irrelevante o fato de serem casados.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>art. 16 da EOAB, art. 40, inciso II do Código de Ética e Disciplina da OAB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>QUESTÃO 06. O juízo criminal da Comarca de ABC expediu mandado de prisão preventiva em 
 desfavor de Saulo, o qual, no momento do cumprimento da medida, telefonou para sua amiga, a 
@@ -804,7 +857,7 @@
 responsabilização criminal e funcional.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre a prerrogativa do advogado a ter acesso amplo 
@@ -825,22 +878,30 @@
 as d emais alternativas estão incorretas .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>§10, do art. 7º, da EOAB, art. 7º, XIV da EOAB, Súmula Vinculante 14, §11 do Art. 7º da EOAB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>QUESTÃO 07. O empresário João Pedro, movido pelo sentimento de vingança, contrata o 
 advogado Beraldo para propor ação de cobrança contra seu ex -sócio Marcos, apresentando 
@@ -863,7 +924,7 @@
 próprios autos.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre lide temerária.  
@@ -885,22 +946,30 @@
 PRÓPRIA.”</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Lide temerária, Art. 32, parágrafo único, da EOAB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>QUESTÃO 08. Gilson, advogado recém inscrito nos quadros da Ordem dos Advogados do Brasil, 
 estava em dúvida entre constituir sociedade unipessoal de advocacia, o que, em seu entender, 
@@ -919,7 +988,7 @@
 trabalhadas excedentes à jornada normal prevista na legislação.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre os honorários de sucumbência.  
@@ -941,22 +1010,30 @@
 não inferior a cem por cento sobre o valor da hora normal, mesmo havendo contrato escrito.”</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>art. 21 da EOAB, art. 18, §1º da EOAB, art. 20 da EOAB, art. 20, §2º da EOAB, honorários de sucumbência</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>QUESTÃO 09. A obra de Hans Kelsen é de fundamental importância para o Direito e segue 
 estudada e discutida até os dias atuais.  
@@ -973,7 +1050,7 @@
 pois indissociáveis.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou sobre a obra “Teoria Pura do Direito” do jurista Hans 
@@ -1000,22 +1077,30 @@
 Política ou outros campos em sua Teoria Pura do Direito.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Teoria Pura do Direito, Direito como sistema normativo coerente e autônomo, Normas Jurídicas, Objetividade científica</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>QUESTÃO 10. A regra da igualdade não consiste senão em quinhoar desigualmente aos desiguais, 
 na medida em que se desigualam. [...] Tratar com desigualdade a iguais, ou a desiguais com 
@@ -1031,7 +1116,7 @@
 d) Teoria Pura do Direito , de Kelsen.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou sobre o tema justiça de acordo com a filosofia clássica 
@@ -1052,22 +1137,30 @@
 incorretas , conforme comentários à alternativa B.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Filosofia Clássica de Aristóteles, Pensamento de Rui Barbosa, Justiça Distributiva, Justiça Comutativa, Regra da igualdade proporcional, Igualdade substancial</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>QUESTÃO 11. Ao exercer o direito de petição, determinada pessoa jurídica estabelecida no 
 território brasileiro precisou realizar o pagamento de taxa, para que o órgão administrativo 
@@ -1088,7 +1181,7 @@
 direito de petição descreva abuso de poder.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão versa sobre o Direito de Petição.  
@@ -1104,22 +1197,30 @@
 inconstitucional.  As alternativas A, C e D estão incorretas , conforme o comentário sobre a alternativa B.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Direito de Petição, art. 5º, inciso XXXIV, alínea a da CF/88</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>QUESTÃO 12. Uma Proposta de Emenda à Constituição (PEC) foi apresentada pelo Presidente da 
 República à Câmara dos Deputados. Tal PEC, para alguns parlamentares, versa sobre matéria 
@@ -1141,7 +1242,7 @@
 Supremo Tribunal Federal.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o Controle de Constitucionalidade, especialmente, o 
@@ -1166,22 +1267,30 @@
 alternativa B.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Controle de Constitucionalidade, Controle judicial preventivo, Proposta de Emenda à Constituição (PEC), Pacto federativo, Art. 60, §4º, I da CF/88, Direito dos parlamentares ao devido processo legislativo, Processo legislativo, Mandado de segurança, Direito líquido e certo ao devido processo legislativo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>QUESTÃO 13. No Estado Ômega, um deputado estadual ajuizou representação de 
 inconstitucionalidade perante o Tribunal de Justiça local, visando questionar a 
@@ -1201,7 +1310,7 @@
 ser revisada pelo STF, independentemente da matéria.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão versa sobre o controle de constitucionalidade em âmbito 
@@ -1225,22 +1334,30 @@
 alternativa A.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Controle de constitucionalidade em âmbito estadual, art. 125, §2º da CF/88, art. 103, III da CF/88, ADI, ADC</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>QUESTÃO 14. Tendo em vista a existência de inúmeras controvérsias entre órgãos judiciários, 
 que geravam grave insegurança jurídica, o Supremo Tribunal Federal editou, há quase uma 
@@ -1262,7 +1379,7 @@
 inconstitucionalidade.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra B . A questão cobra o conhecimento sobre a Súmula Vinculante.   
@@ -1295,22 +1412,30 @@
 alternativas A, C e D estão incorretas , conforme o comentário sobre a alternativa B.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Súmula Vinculante, Art. 103-A, CF/88, Lei 11.417/2006, art. 3º</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>QUESTÃO 15. Ubirajara é membro de uma comunidade indígena situada em terras regularmente 
 demarcadas, ali vivendo conforme as tradições dos seus ancestrais. Em determinado momento, 
@@ -1328,7 +1453,7 @@
 comunidade indígena, que é a proprietária das terras.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão versa sobre as terras ocupadas pelos índios.  
@@ -1342,22 +1467,30 @@
 alternativa C.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Art. 231, §1º a 3º da CF/88</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>QUESTÃO 16. Durante uma operação policial, conhecido traficante de substâncias entorpecentes 
 de alta periculosidade, que operava no Município Alfa, foi preso em flagrante. Sua prisão, no 
@@ -1380,7 +1513,7 @@
 periculosidade do agente.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra B . A questão aborda os Direitos Individuais e Coletivos, especialmente o 
@@ -1392,22 +1525,30 @@
 indicada.  As alternativas A, C e D estão incorretas,  conforme o comentário sobre a alternativa B.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Direitos Individuais e Coletivos, Direito do Preso, art. 5º, inciso LXII da CF/88</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>QUESTÃO 17. Na qualidade de advogado, você foi consultado por um grupo de imigrantes que, 
 uma vez residindo no território nacional, mesmo que em situação irregular, passou a trabalhar 
@@ -1432,7 +1573,7 @@
 nacional e internacional.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre direitos e garantias dos trabalhadores migrantes.  
@@ -1449,22 +1590,30 @@
 estão incorretas , conforme o comentário da  alternativa B.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>artigo 3º, II e IX da Lei de Migração (Lei 13.445/17), Pacto San José da Costa Rica (Decreto 678/92), nos seus artigos 1º e 10, Protocolo de San Salvador (Decreto 3.321/99) arts. 7º e 10, proteção dos direitos fundamentais dos imigrantes, proteção dos direitos trabalhistas, proteção à saúde do trabalhador migrante, igualdade de tratamento e de oportunidade ao migrante e a seus familiares, repúdio e prevenção à xenofobia, repúdio e prevenção ao racismo, repúdio e prevenção a quaisquer formas de discriminação</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>QUESTÃO 18. Em razão da alta concentração de indígenas no Município X e com vistas à melhor 
 promoção dos seus direitos e garantias, as autoridades locais adotaram uma série de medidas 
@@ -1492,7 +1641,7 @@
 por serem desprovidas de personalidade jurídica própria.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre a Resolução 169 da Organização Internacional 
@@ -1509,22 +1658,30 @@
 corresponderem à Convenção 169 da OIT no que tange a consulta aos povos interessados.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Resolução 169 da Organização Internacional do Trabalho, Consulta aos povos interessados, Convenção 169 da OIT, consulta livre, prévia e informada</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUESTÃO 19. Depois de ser convidado para concorrer a um cargo eletivo pelo partido político 
 Alfa, Antônio expressou sua preocupação com os custos de uma campanha eleitoral. Afinal, 
@@ -1542,7 +1699,7 @@
 anterior.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão aborda o conhecimento sobre os partidos políticos e o fundo 
@@ -1577,22 +1734,30 @@
 parte de candidatos que concorreram em eleição anterior.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Lei das Eleições, art. 16-C, §7º, da Lei das Eleições (Lei nº 9.504/97), art. 16-C, §2º, da Lei das Eleições (Lei nº 9.504/97), art. 16-D, §2º, da Lei das Eleições (Lei nº 9.504/97)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUESTÃO 20. Joana requereu o registro de sua candidatura para concorrer ao cargo eletivo de 
 prefeita do Município Alfa, situado no Estado Beta. O registro não sofreu qualquer impugnação 
@@ -1608,7 +1773,7 @@
 d) A decisão de proclamação dos eleitos pode ser impugnada mediante recurso inominado.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o conhecimento sobre inelegibilidade.  
@@ -1647,22 +1812,30 @@
 retomará seu cômputo”.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>art. 262 do Código Eleitoral, art. 262, §3º, do Código Eleitoral, art. 14, §7º, da Constituição Federal, art. 14, §10, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>QUESTÃO 21. Estado estrangeiro solicita, por via diplomática, ao Ministério da Justiça e 
 Segurança Pública brasileiro (MJSP), com base em tratado, com promessa de reciprocidade, a 
@@ -1685,7 +1858,7 @@
 execução da pena.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  A questão aborda o tema  homologação de sentença estrangeira .  
@@ -1712,22 +1885,30 @@
 a letra “B”.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Artigo 105, inciso I, “i” da Constituição Federal, Artigo 100 da Lei de Imigração – Lei n. 13.445/2017, princípio do non bis in idem, Decreto -Lei nº 2.848, de 7 de dezembro de 1940 (Código Penal), Artigo 101 da Lei de Imigração</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>QUESTÃO 22. Sofia, brasileira nata, com dupla nacionalidade, portuguesa e brasileira, decidiu 
 renunciar à nacionalidade brasileira e procurou você, como advogado(a), para receber a 
@@ -1743,7 +1924,7 @@
 geração de situação de apatridia.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a  letra A.  A questão aborda o tema  renúncia da nacionalidade.  
@@ -1766,22 +1947,30 @@
 de apatridia, pois a interessada ainda terá a nacionalidade portuguesa.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>artigo 12, §4º, II, da Constituição Federal, artigo 12, § 5º, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>QUESTÃO 23. O Presidente da Rep ública deve enviar, todo ano, o Projeto da Lei de Diretrizes 
 Orçament árias (PLDO) da Uni ão ao Congresso Nacional para ser apreciado e votado. Como 
@@ -1797,7 +1986,7 @@
 o PLDO.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  A questão aborda o tema leis orçamentárias.   
@@ -1818,22 +2007,30 @@
 à Comissão Mista de Planos, Orçamentos Públicos e Fiscalização (CMO).</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>art. 166, § 1º, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>QUESTÃO 24. O prefeito do Munic ípio Alfa, em determinado exerc ício financeiro, na primeira 
 semana do seu mandato, convocou todos os seus secret ários, assessores e consultores para 
@@ -1856,7 +2053,7 @@
 de acompanhar a vigência do Plano Plurianual (PPA).</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra A . A questão aborda o tema leis orçamentárias.  
@@ -1894,22 +2091,30 @@
 estabelecerá a política de aplicação das agências financeiras oficiais de fomento”.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>princípio da anualidade orçamentária, ciclo orçamentário brasileiro, Lei Orçamentária Anual (LOA), Art. 35, § 2º, III, do ADCT, Art. 165. Leis de iniciativa do Poder Executivo estabelecerão: I - o plano plurianual, Art. 35 (...) § 2º Até a entrada em vigor da lei complementar a que se refere o  art. 165, § 9º, I e II, Art. 165. Leis de iniciativa do Poder Executivo estabelecerão: (...) II - as diretrizes orçamentárias, § 2º A lei de diretrizes orçamentárias compreenderá as metas e prioridades da administração pública federal, estabelecerá as diretrizes de política fiscal e respectivas metas, em consonância com trajetória sustentável da dívida pública, orientará a elaboração da lei orçamentária anual, disporá sobre as alterações na legislação tributária e estabelecerá a política de aplicação das agências financeiras oficiais de fomento</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>QUESTÃO 25. Em 2022, a Organiza ção Religiosa ABC recebeu em doa ção lojas que pretende 
 alugar para destinar a renda obtida com os alugu éis ao pagamento de aux ílio ministerial para a 
@@ -1926,7 +2131,7 @@
 d) Ação Declaratória.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  A questão aborda o tema processo judicial tributário.  
@@ -1966,22 +2171,30 @@
 jurídica”.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Mandado de Segurança Preventivo, jurisprudência pacífica do STJ, Lei nº 8.397/1992, Ação Anulatória, Ação Declaratória, art. 150, VI, "b" da Constituição Federal, Art. 19 do CPC</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>QUESTÃO 26. O Estado Alfa acabou de implantar um novo sistema on -line para o lan çamento do 
 Imposto sobre a Transmiss ão Causa Mortis e Doa ção – ITCMD, veiculando tamb ém em lei 
@@ -1999,7 +2212,7 @@
 d) Lançamento de ofício.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão aborda o tema modalidades de lançamento.  
@@ -2041,22 +2254,30 @@
 autoridade que o efetuou, ou omissão, pela mesma autoridade, de ato ou formalidade essencial”.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Art. 147 do CTN, Art. 148 do CTN, Art. 150 do CTN, Art. 149 do CTN</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>QUESTÃO 27. Foi criado o Territ ório Federal Alfa no Brasil, com a determina ção de que, por sua 
 extens ão, deveria ser dividido em munic ípios. À luz do texto da Constitui ção Federal de 1988, 
@@ -2071,7 +2292,7 @@
 União.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o tema  cobrança de impostos  estaduais.   
@@ -2092,22 +2313,30 @@
 comentários à alternativa B.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>art. 147 da Constituição Federal</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>QUESTÃO 28. Lei Ordin ária do Munic ípio Alfa, publicada no Di ário Oficial Municipal em 
 30/09/2020, instituiu uma Taxa de Fiscaliza ção de Estabelecimentos Comerciais – TFEC, 
@@ -2128,7 +2357,7 @@
 d) é ilegal por ser calculada com base no capital social das empresas.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra D . A questão aborda o tema  taxas . 
@@ -2153,22 +2382,30 @@
 capital das empresas”.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>art. 145, II, da Constituição Federal, art. 150, III, "b" e "c" da CF, princípio da anterioridade, princípio da anterioridade nonagesimal, princípio da capacidade contributiva, art. 77, parágrafo único do CTN</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E29" t="b">
-        <v>0</v>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>QUESTÃO 29. Um deputado estadual desejava conceder benef ício fiscal na modalidade de 
 crédito presumido de ICMS em favor de bares e restaurantes situados no Estado Alfa, de modo a 
@@ -2185,7 +2422,7 @@
 por decreto, não sendo necessária a aprovação de lei estadual nesse sentido.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C . A questão trata da competência para concessão de benefício fiscal.  
@@ -2225,22 +2462,30 @@
 Publicação: DJe 14/11/2022)”</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Art. 47 da CF, Art. 61 da CF, art. 155, § 2º, XII, 'g', da Constituição Federal, Lei Complementar nº 24/1975, CF/88, princípio da legalidade tributária, STJ - AgInt no REsp: 1944463 PR 2021/0184194 -0</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>QUESTÃO 30. O Município Delta procurou o Escritório Alfa com a intenção de contratá -lo para 
 prestar serviços especializados de consultoria e auditoria financeira, de natureza 
@@ -2270,7 +2515,7 @@
 contrato.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra A . A questão trata dos casos de inexigibilidade de licitação.  
@@ -2315,22 +2560,30 @@
 reconhecidamente adequado à plena satisfação do objeto do contrato;".</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Lei 14.133/21, artigo 74, III, c, Lei 14.133/21, artigo 74, § 3º, Lei 14.133/21, artigo 74, Lei 14.133/21, artigo 6º, XIX, Lei 14.133/21, artigo 6º, XV</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>QUESTÃO 31. Evandro Santos, prefeito do município Gama, tem dúvidas acerca da 
 operacionalização do controle externo do julgamento das contas que deve anualmente prestar 
@@ -2348,7 +2601,7 @@
 Câmara Municipal.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra D . A questão trata sobre o julgamento das contas municipais.  
@@ -2384,22 +2637,30 @@
 prevalecer por decisão de dois terços dos membros da Câmara Municipal.".</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Art. 31 da Constituição Federal de 1988, § 2º do Art. 31 da CF/88</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>QUESTÃO 32. O Município Alfa fez editar um decreto expropriatório por utilidade pública do 
 bem de propriedade de Constância, sob o fundamento de que o imóvel é necessário para a 
@@ -2426,7 +2687,7 @@
 propriedade.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta apresentada pela banca é a letra C ; contudo, defendemos a anulação desta questão.  
@@ -2463,22 +2724,30 @@
 respectivo decreto e findos os quais este caducará.".</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>desapropriação por utilidade pública, art. 5º, alínea "m" do Decreto-Lei nº 3.365/41, Art. 20 do Decreto-Lei 3.365/41, art. 9º do referido Decreto-Lei, art. 2º, parágrafo único, alínea "e" da Lei nº 4.717/65, desvio de finalidade, Art. 20 do Decreto-Lei 3.365/41, art. 10º do Decreto-Lei 3.365/41</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>QUESTÃO 33. Diante do grande déficit de servidores, o Estado Alfa realizou concurso público 
 para o cargo da polícia penal, com previsão de cinquenta vagas. O respectivo edital previu o 
@@ -2503,7 +2772,7 @@
 Constituição exige o período razoável de no mínimo dois anos, prorrogável por mais um ano.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra C . A questão trata do direito subjetivo à nomeação.   
@@ -2543,22 +2812,30 @@
 por igual período;".</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>RE 837.311, Súmula Vinculante 44, Agravo de Instrumento 758.533/MG, Art. 37, III da CF/88</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>QUESTÃO 34. Há mais de dez anos o Município Delta trava uma batalha judicial com a sociedade 
 empresária Ipsilone, em decorrência de uma construção irregular, que, apesar de não causar 
@@ -2584,7 +2861,7 @@
 e compatível com interesses gerais.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra D . A questão trata da Lei de Introdução ao Direito Brasileiro, no tocante à 
@@ -2623,22 +2900,30 @@
 I - buscará solução jurídica proporcional, equânime, eficiente e compatível com os interesses gerais;".</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Lei de Introdução ao Direito Brasileiro, Art. 26 da LINDB, inciso III do §1º do Art. 26 da LINDB, artigo 26 da LINDB, inciso I do §1º do art. 26 da LINDB</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>QUESTÃO 35. A Sociedade Divergente, após os procedimentos pertinentes, obteve a licença de 
 operação para as atividades lesivas ao meio ambiente que exerce pelo prazo de dez anos. Para 
@@ -2665,7 +2950,7 @@
 suspender ou cancelar licença expedida, quando ocorrer inadequação à s normas legais.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra D . A questão aborda o conhecimento sobre licença ambiental.  
@@ -2696,22 +2981,30 @@
 quando ocorrer: I - violação ou inadequação de quaisquer condicionantes ou normas legais”.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>art. 19, I, da Resolução nº 237 do CONAMA</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>QUESTÃO 36. Gentil realiza atividade de agricultura familiar, tem um aviário e cria alguns 
 animais, notadamente para a produção de leite. A pequena propriedade rural de Gentil vem 
@@ -2734,7 +3027,7 @@
 atividades econômicas com a utilização da água.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão aborda o conhecimento sobre a Política Nacional de Recursos 
@@ -2758,22 +3051,30 @@
 participação do Poder Público, dos usuários e das comunidades”.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Política Nacional de Recursos Hídricos, Lei nº 9.433/97, Art. 1º, I, da Política Nacional de Recursos Hídricos (Lei nº 9.433/97), Art. 1º, II, da Política Nacional de Recursos Hídricos (Lei nº 9.433/97), Art. 1º, III, da Política Nacional de Recursos Hídricos (Lei nº 9.433/97), Art. 1º, VI, da Política Nacional de Recursos Hídricos (Lei nº 9.433/97)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>QUESTÃO 37. Um ano antes da morte de Otávio, Natália, 19 anos, ajuizou ação declaratória de 
 filiação, alegando ter nascido antes de trezentos dias da dissolução da sociedade conjugal de 
@@ -2789,7 +3090,7 @@
 d) A alegação de impotência, ainda que provada, é irrelevante para a discussão da filiação.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  A questão tratou sobre filiação.  
@@ -2808,22 +3109,30 @@
 cônjuge para gerar, à época da concepção, ilide a presunção da paternidade”.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Art. 1.601 do Código Civil, Art. 1.600 do Código Civil, Art. 1.599 do Código Civil</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>QUESTÃO 38.  Aluísio concedeu um empréstimo a Fábio e, como garantia do empréstimo, Letícia 
 concedeu a Aluísio a fiança, renunciando ao benefício de ordem.  
@@ -2837,7 +3146,7 @@
 os bens de Fábio.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra D . A questão tratou sobre fiança.  
@@ -2860,22 +3169,30 @@
 fiador: I - se ele o renunciou expressamente;”.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Art. 820 do Código Civil, Art. 823 do Código Civil, Art. 819 do Código Civil, Art. 827 do Código Civil, Art. 828 do Código Civil, fiança, benefício de ordem</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>QUESTÃO 39. João é proprietário de um terreno e, por meio de escritura pública devidamente 
 registrada no registro de imóveis, concedeu a Paula o direito real de superfície sobre esse 
@@ -2897,7 +3214,7 @@
 aquisição do imóvel, caso decida vender o terreno.</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  A questão tratou sobre o direito real de superfície.  
@@ -2916,22 +3233,30 @@
 direito de preferência, em igualdade de condições”.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>direito real de superfície, artigo 1.373 do Código Civil, direito de preferência</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E40" t="b">
-        <v>0</v>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>QUESTÃO 40.  Lúcia, após negociações, concordou em vender para Cristina um imóvel pelo valor 
 de R$500.000,00. Diante disso, as partes celebraram contrato definitivo de compra e venda, 
@@ -2948,7 +3273,7 @@
 ser feito mediante instrumento particular.</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  A questão tratou sobre o contrato de compra e venda.   
@@ -2978,22 +3303,30 @@
 o teriam querido, se houvessem previsto a nulidade”.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Artigo 108 do Código Civil, Artigo 170 do Código Civil, Contrato de compra e venda, Escritura pública como requisito de validade para a compra e venda de um imóvel de valor superior a trinta vezes o maior salário mínimo, Conversão de negócio jurídico nulo em contrato preliminar de compra e venda</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>QUESTÃO 41. Adriana é fisioterapeuta e prestou serviços a Vitória (sessões de fisioterapia). 
 Como contraprestação ao serviço prestado, Vitória se comprometeu a pagar a quantia de 
@@ -3010,7 +3343,7 @@
 a Paulo pela dívida cedida.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  A questão tratou sobre cessão der crédito.  
@@ -3030,22 +3363,30 @@
 296 do Código Civil.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Art. 286 do Código Civil, Art. 290 do Código Civil, Art. 292 do Código Civil, Art. 296 do Código Civil</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>QUESTÃO 42. João, viúvo, é pai da Marcela e Tatiana, capazes, que não possuem filhos. Por 
 ocasião da morte de João, ambas as filhas são chamadas a aceitar a herança, no valor de 
@@ -3059,7 +3400,7 @@
 d)  O quinhão de Marcela poderá ser aceito pelo Banco XYZ até o valor de seu crédito.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  A questão tratou sobre renúncia de herança.  
@@ -3080,22 +3421,30 @@
 herdeiros”.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Art. 1.813 do Código Civil, Renúncia de herança</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>QUESTÃO 43. Márcio, adolescente com 16 anos, foi apreendido em flagrante na prática de ato 
 infracional análogo ao roubo qualificado por emprego de arma de fogo. Foi, de plano, colocado 
@@ -3119,7 +3468,7 @@
 análogo ao crime, estando correta a decisão.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o conhecimento sobre internação provisória.   
@@ -3149,22 +3498,30 @@
 estando o adolescente internado, será imediatamente colocado em liberdade”.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Art. 189, II e parágrafo único, do ECA</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>QUESTÃO 44. Pedro, com 12 anos, foi vítima de bullying na escola em que estuda. Durante o 
 recreio, um grupo de colegas da mesma idade o jogou, à força, dentro da lixeira. Um dos 
@@ -3186,7 +3543,7 @@
 relevante de divulgar e combater o bullying.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão aborda o conhecimento sobre  
@@ -3223,22 +3580,30 @@
 judicialização para reparação cível, especialmente indenizatória.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>art. 17 do ECA, direito fundamental da criança e do adolescente ao respeito e à preservação da sua imagem, responsabilidade civil, violação dos direitos à honra, à imagem, à privacidade e à intimidade do adolescente, AgInt no AREsp n. 312.647/SP, uso indevido de imagem de menores sem autorização dos responsáveis legais, obrigação de reparação decorre do próprio uso indevido da imagem, veiculação sem autorização da imagem de menor de idade configura ato ilícito, Estatuto da Criança e do Adolescente, REsp n. 1.628.700/MG, dano à imagem de criança veiculada sem a autorização do representante legal é in re ipsa, art. 146-A do Código Penal, crime de intimidação sistemática (bullying)</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>QUESTÃO 45. Nísia adquiriu um fogão a gás de cinco bocas, sendo o produto entregue no dia 12 
 de setembro de 2023, lacrado e em perfeito estado quanto ao aspecto externo. O produto foi 
@@ -3266,7 +3631,7 @@
 de defesa do consumidor.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  A questão tratou sobre vício do produto.  
@@ -3300,22 +3665,30 @@
 transmitida de forma inequívoca;”.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Art. 26 do CDC, Vício do produto, Produtos duráveis, Decadência, Reclamação comprovadamente formulada pelo consumidor perante o fornecedor, Resposta negativa correspondente transmitida de forma inequívoca, Vícios aparentes ou de fácil constatação</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>QUESTÃO 46. Jordana, aposentada, 89 anos, o(a) procurou como advogado(a) porque fora 
 atraída por ligação telefônica de instituição financeira Banco Mútuo S.A., que anunciava oferta 
@@ -3335,7 +3708,7 @@
 apenas consultar os serviços de proteção ao crédito antes de concedê -lo.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  A questão tratou sobre superendividamento.  
@@ -3370,22 +3743,30 @@
 disposto neste Código e na legislação sobre proteção de  dados;”.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Art. 6º, IV do CDC, Art. 6º, XI do CDC, Art. 14 do CDC, Art. 49 do CDC, Art. 54-C, II do CDC, Art. 54-D, II do CDC</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E47" t="b">
-        <v>0</v>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>QUESTÃO 47. O contrato de constituição de uma sociedade empresária foi assinado pelos sócios 
 no dia 17 de abril de 2023, iniciando -se nessa data a atividade social. O sócio Ubajara Horizonte, 
@@ -3404,7 +3785,7 @@
 arquivamento do contrato social, eis que não foi respeitado o prazo legal de trinta dias.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra D.  A questão tratou sobre registro empresarial.  
@@ -3428,22 +3809,30 @@
 prejudicados, por culpa no desempenho de suas funções.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Artigo 998 do Código Civil, Artigo 36 da Lei nº 8.934/94, Artigo 985 do Código Civil, Artigo 45 do Código Civil, Artigo 1.150 do Código Civil, Artigo 1.016 do Código Civil</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>QUESTÃO 48. Marialva Castro foi nomeada pelo empresário individual Wenceslau Paiçandu 
 como gerente do seu estabelecimento, intitulado Hortifruti Fazenda Rio Grande. No instrumento 
@@ -3466,7 +3855,7 @@
 gerente conhecia tais restrições.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra A.  A questão tratou sobre  a figura do preposto na empresa.  
@@ -3487,22 +3876,30 @@
 que tratou com o gerente.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Artigo 1.174 do Código Civil, Registro Público de Empresas Mercantis</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>QUESTÃO 49. O empresário individual Valério Sampaio, devidamente inscrito na Junta 
 Comercial do Estado do Espírito Santo, teve sua falência requerida em 3 de maio de 2023 com 
@@ -3518,7 +3915,7 @@
 d) Somente com o cancelamento do registro será possível a decretação da falência.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra B.  A questão tratou sobre registro empresarial. e falência.  
@@ -3546,22 +3943,30 @@
 registrado.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>artigo 967 do Código Civil, artigo 96 da Lei n. 11.101/05</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>QUESTÃO 50. Em 2019, a constituição da sociedade limitada unipessoal, de modo permanente, 
 passou a ser possível. Nas opções a seguir, são apresentadas normas aplicáveis às sociedades 
@@ -3573,7 +3978,7 @@
 d) A solidariedade pela exata estimação dos bens conferidos ao capital social.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  A questão tratou sobre  sociedades limitadas.  
@@ -3597,22 +4002,30 @@
 sociedade.</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Artigo 1.072 do Código Civil, Artigo 1.033, II, do Código Civil, Artigo Art. 1.052 do Código Civil, Artigo 1.060 do Código Civil, Artigo 1.055, §1º, do Código Civil</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>QUESTÃO 51. Maria Joana tem contrato de locação firmado com Mariana há muitos anos. A 
 relação contratual entre elas é tranquila, e Maria Joana nunca atrasou o pagamento do aluguel. 
@@ -3635,7 +4048,7 @@
 nos Juizados Especiais Cíveis.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão aborda o conhecimento sobre a competência dos juizados 
@@ -3663,22 +4076,30 @@
 e capacidade das pessoas, ainda que de cunho patrimonial”.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Art. 3º, III, da Lei nº 9.099/95, Art. 3º, §2º, da Lei nº 9.099/95</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>QUESTÃO 52. Silene ajuizou ação de divórcio, cumulada com pedido de fixação de alimentos, em 
 face de Jonas. O juiz, em sede de decisão de saneamento e organização do processo, entendeu 
@@ -3699,7 +4120,7 @@
 com o pedido de fixação de alimentos.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão aborda o conhecimento sobre julgamento antecipado parcial 
@@ -3729,22 +4150,30 @@
 incontroverso; II - estiver em condições de imediato julgamento, nos termos do art. 355”.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Art. 356 do CPC, Art. 355 do CPC, Art. 356, §5º, do CPC, Art. 1.015, II e XIII, do CPC, Art. 357, §6º, do CPC, Art. 357, §1º, do CPC</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E53" t="b">
-        <v>0</v>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>QUESTÃO 53. Antes de tomar posse como juiz, Bernardo atuou por 2 (dois) anos como membro 
 do Ministério Público. Boa parte de sua atuação como promotor foi focada na Promotoria de 
@@ -3769,7 +4198,7 @@
 enquadrar em hipótese de impedimento do magistrado.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão aborda o conhecimento sobre os impedimentos do juiz.  
@@ -3799,22 +4228,30 @@
 sentença na ação col etiva, por se enquadrar em hipótese de impedimento do magistrado.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>art. 144, I, do CPC, Impedimento do juiz</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>QUESTÃO 54. João residia em apartamento localizado na cidade do Rio de Janeiro. Ele era 
 locatário do apartamento e Pedro figurava como locador, tendo ambos firmado um contrato de 
@@ -3836,7 +4273,7 @@
 de Luiz na lide não equivale às exatas condições da relação do locador com o locatário.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão aborda o conhecimento sobre intervenção de terceiros.  
@@ -3872,22 +4309,30 @@
 assistente com o adversário do assistido, sendo hipótese de assistência simples.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>art. 124 do CPC, assistência litisconsorcial, art. 121, caput, do CPC, assistência simples</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>QUESTÃO 55. Bruno, após sofrer um grave acidente de carro, foi levado para a urgência do 
 Hospital Bom Sorriso. Ao chegar ao local em uma ambulância, mesmo sendo coberto pelo seu 
@@ -3913,7 +4358,7 @@
 demanda se estabilizará.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o conhecimento sobre a tutela provisória de urgência 
@@ -3944,22 +4389,30 @@
 instrumento contra as decisões interlocutórias que versarem sobre: I - tute las provisórias”.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>tutela provisória de urgência antecipada requerida em caráter antecedente, art. 300, caput, do CPC, art. 298 do CPC, princípio da fundamentação das decisões judiciais, art. 93, IX, da Constituição Federal, art. 1.015, I, do CPC</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>QUESTÃO 56. Pedro propôs ação de dissolução parcial da sociedade Papel Cia. Ltda., em função 
 de atos praticados pelo então administrador da sociedade, Paulo. No processo, restou 
@@ -3981,7 +4434,7 @@
 incidente de assunção de competência e à remessa necessária.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão aborda o conhecimento sobre a técnica de ampliação do 
@@ -4019,22 +4472,30 @@
 tribunais, pelo plenário ou pela corte especial”.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>art. 942 do CPC/2015, art. 994 do CPC, art. 942 do CPC, art. 942, §3º, do CPC, art. 92, §4º, do CPC</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>QUESTÃO 57. Amanda, maior e capaz, e Fernando, menor púbere, ingressaram em um 
 supermercado com a intenção de furtar mercadorias. Assim, percorreram os corredores do 
@@ -4052,7 +4513,7 @@
 d) A tese de atipicidade da conduta, ante a impossibilidade material de consumação do crime.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre princípio da insignificância, crime tentado, crime 
@@ -4076,22 +4537,30 @@
 por si só, não torna impossível a configuração do crime de furto.”</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>princípio da insignificância, crime tentado, crime consumado, crime impossível, princípio da consunção, súmula 567 do STJ, jurisprudência, súmula 500 do STJ</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E58" t="b">
-        <v>0</v>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>QUESTÃO 58. Douglas, reincidente, pois condenado anteriormente por lesão corporal no âmbito 
 da lei de violência doméstica e familiar contra a mulher, pena já extinta pelo cumprimento, foi 
@@ -4104,7 +4573,7 @@
 d) semiaberto e a substituição da pena por duas penas restritivas de direitos.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre dosimetria e execução de pena, regime de 
@@ -4124,22 +4593,30 @@
 a substituição seja feita por uma pena restritiva de direitos e multa ou por duas restritivas de direitos.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Dosimetria e execução de pena, Regime de cumprimento de pena, Reincidência, Primariedade, Conversão de pena, Suspensão condicional da pena, Substituição da pena por pena restritiva de direitos, Súmula 269 do STJ, Art. 44, §2º do CP, Circunstâncias judiciais</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E59" t="b">
-        <v>0</v>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>QUESTÃO 59. Enzo completou neste mês 18 anos de idade, sendo certo que, na sua infância, foi 
 vítima de estupro de vulnerável (pena: de 8 a 15 anos de reclusão). Considerando que já se 
@@ -4156,7 +4633,7 @@
 ocorrido a prescrição.</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre o crime de estupro de vulnerável, prescrição, 
@@ -4176,22 +4653,30 @@
 que Enzo completou 18 anos e não da data do fato, segundo art. 111, inciso V, d o CP.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Crime de estupro de vulnerável, Prescrição, Imprescritibilidade, Persecução penal, Constituição Federal (crimes de racismo e ação de grupos armados contra a ordem constitucional e o Estado Democrático), Art. 115 do CP (redução do prazo prescricional), Art. 111, V, do CP (termo inicial da prescrição nos crimes contra a dignidade sexual ou que envolvam violência contra a criança e o adolescente), Art. 115 do CP (redução do prazo de prescrição devido à idade do autor na data da sentença)</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E60" t="b">
-        <v>0</v>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>QUESTÃO 60. Célio, inconformado com o término de seu casamento de 10 anos com sua esposa 
 Natália, passou a persegui -la em seus locais habituais de lazer e trabalho, além de mandar e -
@@ -4212,7 +4697,7 @@
 denúncia e em audiência perante o Juiz e o membro do Ministério Público.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre o crime de perseguição, ação penal pública 
@@ -4232,22 +4717,30 @@
 recebimento da denúncia e ouvido o Ministério Público.”</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Crime de perseguição, Ação penal pública incondicionada, Ação penal pública condicionada, Retratação da representação, Art. 16 da Lei nº 11.340/2006</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E61" t="b">
-        <v>0</v>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>QUESTÃO 61. Denis cumpria pena em regime fechado, após ser definitivamente condenado, 
 quando ocorreu um movimento de subversão da ordem e disciplina dentro do ambiente 
@@ -4267,7 +4760,7 @@
 e escrita, da falta disciplinar de natureza grave.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre regime de cumprimento de pena, 
@@ -4286,22 +4779,30 @@
 na questão sejam punidos com falta grave.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>regime de cumprimento de pena, individualização da pena, princípio da isonomia, princípio da lesividade, princípio da culpabilidade, princípio da legalidade, responsabilidade penal objetiva, art. 50, inciso I, da Lei nº 7.210/84</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>QUESTÃO 62. Gabriel flagrou Júlia, sua namorada, em um momento íntimo com Pedro. 
 Alucinado, Gabriel efetuou disparos de arma de fogo contra ambos, com a intenção de matá -los, 
@@ -4323,7 +4824,7 @@
 arma de fogo.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre crimes contra a vida, crime de disparo de arma 
@@ -4343,22 +4844,30 @@
 arma d e fogo (art. 15 da Lei nº 10.826/2003).</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Crimes contra a vida, Crime de disparo de arma de fogo, Causa superveniente relativamente independente, Desistência voluntária, Nexo causal, Tentativa, art. 13, §1º do CP, art. 15 da Lei nº 10.826/2003</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>QUESTÃO 63. Ricardo é policial civil e disparou seis vezes, com intenção de matar, contra 
 Marilene, sua ex -amante, que veio a óbito. Diversos transeuntes testemunharam os fatos, 
@@ -4373,7 +4882,7 @@
 d) O flagrante é ilegal e o delegado não poderia prender Ricardo por trabalharem juntos.</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C . A questão trata sobre flagrante próprio, flagrante impróprio, flagrante 
@@ -4390,22 +4899,30 @@
 ação de acordo com o estabelecido no art. 301 e demais do CPP.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>art. 302, inciso III do CPP, art. 301 do CPP, Flagrante próprio, Flagrante impróprio, Flagrante presumido, Flagrante ilegal</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E64" t="b">
-        <v>0</v>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>QUESTÃO 64. A família de Luís procura você, como advogado(a), explicando que existe uma lei 
 nova, mais benéfica, que se aplica ao caso do seu parente. Você, ao estudar o caso, descobriu que 
@@ -4420,7 +4937,7 @@
 benéfica.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre aplicação da lei penal mais benéfica e 
@@ -4437,22 +4954,30 @@
 Lei de Execução Penal e na súmula 611 do STF.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Aplicação da lei penal mais benéfica, Art. 66, inciso I da Lei de Execução Penal, Súmula 611 do STF</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>QUESTÃO 65. Marilda, após ter sido regularmente processada, foi condenada, pelo Juízo 
 originariamente competente, pela prática de desacato (pena: de seis meses a dois anos). Marilda 
@@ -4464,7 +4989,7 @@
 d) Apelação, no prazo de cinco dias, e as razões poderão ser juntadas no prazo de três dias.</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre recursos em processo penal, juizado especial 
@@ -4477,22 +5002,30 @@
 A alternativa D está incorreta . Pois não é o que estabelece o art. 82, §1º da Lei nº 9.099/95.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>recursos em processo penal, juizado especial criminal, prazos, recurso de apelação, recurso inominado, art. 82, §1º da Lei nº 9.099/95</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>QUESTÃO 66. A República Federativa Alfa reconhece o Poder Judiciário como um dos poderes 
 independentes da República. Em Alfa há um órgão de acusação independente e diferente do 
@@ -4507,7 +5040,7 @@
 d) consensual.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre sistemas processuais, sistema acusatório, sistema 
@@ -4526,22 +5059,30 @@
 A alternativa D está incorreta . Não existe sistema consensual.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Sistemas processuais, Sistema acusatório, Sistema inquisitivo, Sistema misto, Sistema consensual</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>QUESTÃO 67. Ana Rosa foi denunciada perante o Tribunal do Júri pela prática de homicídio 
 duplamente qualificado, por ter sido praticado mediante tortura e em razão da idade da vítima, 
@@ -4563,7 +5104,7 @@
 delas tenha sido alegada em plenário.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre tribunal do júri e recursos.  
@@ -4584,22 +5125,30 @@
 Saldan ha Palheiro, julgado em 06/06/2017.)</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>art. 593, inciso III, alínea “b” do CPP, art. 5º, inciso XXXVIII, alínea “c”, da CF, Soberania dos veredictos, Princípio da correlação, Princípio da congruência, art. 385, do CPP, CF/88, jurisprudência do STJ</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>QUESTÃO 68. Francisco e seu filho Alfredo depredaram o carro de Terezinha, o que motivou o 
 ajuizamento de queixa -crime em face de Francisco e Alfredo, dentro do prazo decadencial, pelo 
@@ -4616,7 +5165,7 @@
 d) Do ne bis in idem e da individualização das penas.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra A . A questão trata sobre princípios de ação penal privada.  
@@ -4632,22 +5181,30 @@
 da questão.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>princípios de ação penal privada, princípio da indivisibilidade, art. 48 do CPP, princípios da legalidade, princípio da presunção de inocência, ne bis in idem, individualização das penas</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E69" t="b">
-        <v>0</v>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Direitos Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>QUESTÃO 69. Em 2018, Antônio, segurado, empregado vinculado ao Regime Geral de 
 Previdência Social, sofreu um acidente de trânsito quando voltava para sua residência. Depois 
@@ -4660,7 +5217,7 @@
 d) Abono de permanência em serviço.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata dos benefícios previdenciários existentes no âmbito 
@@ -4680,22 +5237,30 @@
 As alternativas B, C e D estão incorretas , conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>art. 86 da Lei 8.213/91</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>QUESTÃO 70. Humberto Alves, que sempre atuou como advogado autônomo, logrou aprovação 
 em concurso público para a Advocacia Geral da União, sendo regularmente nomeado em cargo 
@@ -4712,7 +5277,7 @@
 próprio de previdência dos servidores federais.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata de regras gerais envolvendo o RPPS e a migração entre 
@@ -4750,22 +5315,30 @@
 vínculo previdenciário entre ele e o RPPS da União.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>art. 40, CF, art. 10, §1º, I, “b”, EC 103/19, §9º do art. 201 da CF, caput do art. 40 da CF</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>QUESTÃO 71. Antônio Valente é seu cliente por conta de uma reclamação trabalhista ajuizada 
 anteriormente, na qual vocês se sagraram vitoriosos. Agora, trabalhando para outro 
@@ -4785,7 +5358,7 @@
 e informação.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema teletrabalho.  
@@ -4805,22 +5378,30 @@
 natureza, não configure trabalho externo.”</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Art. 75-C da CLT, Art. 75-B, § 2º, da CLT, Art. 75-B, § 1º, da CLT, Art. 75-B, caput, da CLT</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>QUESTÃO 72. Paulo trabalha desde 2022 na sociedade empresária Auditórios Fidedignas Ltda. 
 como auditor. A empresa possui plano permanente de capacitação e, por isso, Paulo viaja com 
@@ -4840,7 +5421,7 @@
 emprego por um ano.</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema acidente de trabalho.  
@@ -4869,22 +5450,30 @@
 Lei 8.213/91, acima colacionado.</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Art. 21, IV, alínea “b”, da Lei 8.213/91, Art. 118 da Lei 8.213/91, Súmula 378 do TST</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E73" t="b">
-        <v>0</v>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>QUESTÃO 73. Roberta é estagiária numa fábrica de tecelagem, mesmo lugar onde Rogéria atua 
 como aprendiz e que Fabiane trabalha como subgerente. No ano de 2024, as três trabalhadoras 
@@ -4901,7 +5490,7 @@
 maior apresentada pela empresa.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema garantia de emprego.  
@@ -4928,22 +5517,30 @@
 alternativa B está correta . As alternativas A, C e D ficam, po is, automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Súmula 244 do TST, art. 10, II, b do ADCT, Art. 428 da CLT, Art. 3º da Lei 11.788/08</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E74" t="b">
-        <v>0</v>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>QUESTÃO 74. Pedro e Vitor trabalham na mesma sociedade empresária. Em 2023, Pedro foi 
 convocado para prestar serviço militar obrigatório e Vitor sofreu um grave acidente de trabalho, 
@@ -4959,7 +5556,7 @@
 para efeito de indenização.</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema tempo de serviço.  
@@ -4971,22 +5568,30 @@
 e D ficam, pois, aut omaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>art. 4º, § 1º, da CLT</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E75" t="b">
-        <v>0</v>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>QUESTÃO 75. Constantino é empregado em uma indústria de fabricação de móveis. O 
 empregador ficou ciente de que o Ministério Público Estadual apresentou denúncia contra 
@@ -5004,7 +5609,7 @@
 término da ação penal.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema rescisão do contrato de trabalho.  
@@ -5024,22 +5629,30 @@
 tal hipótese no rol do artigo 473 e nem em nenhum outro dispositivo da CLT.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>rescisão do contrato de trabalho, art. 482, alínea “d”, da CLT, Art. 482 da CLT, condenação criminal do empregado, passada em julgado, caso não tenha havido suspensão da execução da pena, presunção de inocência, artigo 473 da CLT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E76" t="b">
-        <v>0</v>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>QUESTÃO 76. Em determinada reclamação trabalhista, o recurso ordinário interposto pela ex -
 empregadora encontra -se pendente de julgamento e alcança todo o objeto da condenação. Para 
@@ -5058,7 +5671,7 @@
 possível a execução provisória, havendo evidente falha do juiz.</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema execução trabalhista.  
@@ -5070,22 +5683,30 @@
 do trabalho, terão, em regra, efeito meramente devolutivo.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>execução trabalhista, Art. 899, caput, da CLT</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>QUESTÃO 77. Pedro é advogado e sua audiência está marcada para as 17 horas, mas ele está 
 preocupado, porque já são 16h30, sua audiência não foi apregoada e ele viu, pela pauta, que 
@@ -5099,7 +5720,7 @@
 d) As audiências devem ser paralisadas às 17h30.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema audiências em processo do trabalho.   
@@ -5118,22 +5739,30 @@
 ficam automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Art. 813 da CLT, Art. 815, §§ 2º e 3º da CLT</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E78" t="b">
-        <v>0</v>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>QUESTÃO 78. Tereza ajuizou reclamação trabalhista contra o seu ex -empregador, que foi julgada 
 totalmente procedente, com a concessão de 10% de honorários advocatícios sucumbenciais. 
@@ -5152,7 +5781,7 @@
 mesmo após o prazo para impugnação.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema execução.  
@@ -5176,22 +5805,30 @@
 B e C ficam automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>art. 791-A da CLT, Art. 494, I, do CPC, jurisprudência dos Tribunais, Agravo de Instrumento julgado pelo TJ-SP</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>QUESTÃO 79. Em sede de reclamação trabalhista, a decisão deferindo horas extras para o autor 
 transitou em julgado. Após a liquidação de sentença e fixado o débito em R$ 10.000,00, a 
@@ -5208,7 +5845,7 @@
 d) Recurso de Revista.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema recursos em processo do trabalho.  
@@ -5218,22 +5855,30 @@
 alternativas A, C e D ficam, pois, automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>art. 897, alínea ‘’a’’, da CLT</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>QUESTÃO 80. Pietro está sendo executado na Justiça do Trabalho e, em seu processo, o juiz 
 acionou todas as ferramentas tecnológicas disponíveis para tentar apreender dinheiro ou bens, 
@@ -5251,7 +5896,7 @@
 d) Agravo de Instrumento para o TRT da Região.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema recursos em processo do trabalho.  
@@ -5274,18 +5919,23 @@
 Instagram: estrategiacarreirajurídica / yasminushara</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Recursos em processo do trabalho, Art. 895, II, da CLT, OJ n° 152 da SDI-II/TST</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
   </sheetData>
